--- a/biology/Zoologie/Gérygone_brune/Gérygone_brune.xlsx
+++ b/biology/Zoologie/Gérygone_brune/Gérygone_brune.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>G%C3%A9rygone_brune</t>
+          <t>Gérygone_brune</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gerygone mouki
 La Gérygone brune (Gerygone mouki) est une espèce de passereaux de la famille des Acanthizidae originaire d'Australie.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>G%C3%A9rygone_brune</t>
+          <t>Gérygone_brune</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle mesure environ 10 cm de longueur. Le dos est gris foncé ou brun tandis que la face et le ventre sont d'un gris plus pâle, crème ou brun délavé. Les plumes de la queue sont noires et peuvent être blanches à l'extrémité.
 Elle peut être aperçue dans les forêts tropicales, seule ou en petits groupes de deux à quatre. Elle se nourrit d'insectes.
-Son chant d'appel est vif et répété, transcrit en anglais par which-is-it-is-it ou plus doux[1].
+Son chant d'appel est vif et répété, transcrit en anglais par which-is-it-is-it ou plus doux.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>G%C3%A9rygone_brune</t>
+          <t>Gérygone_brune</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est originaire du littoral de l'est de l'Australie. Elle a un territoire de distribution relativement grand. Bien que la population totale n'ait pas été quantifiée, elle est considérée de « préoccupation mineure » par l'UICN.
 </t>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>G%C3%A9rygone_brune</t>
+          <t>Gérygone_brune</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>D'après Alan P. Peterson, il en existe trois sous-espèces :
 Gerygone mouki amalia Meise 1931 ;
